--- a/ghgtools_AssetPortfolio_V1.xlsx
+++ b/ghgtools_AssetPortfolio_V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brand\OneDrive\Documents\GitHub\ghgtools-website\content\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brand\OneDrive\Documents\GitHub\ghgtools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF06D763-55A8-4D0F-9430-F13296742880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B31E9D-5EBC-4E78-9030-7AD35E11415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-18705" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetPortfolio" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>AssetID</t>
   </si>
@@ -196,6 +196,30 @@
   </si>
   <si>
     <t>Lodging</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>PNW</t>
+  </si>
+  <si>
+    <t>Rockies</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Coffee Sales</t>
+  </si>
+  <si>
+    <t>Snow Sports</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>BusinessUnit</t>
   </si>
 </sst>
 </file>
@@ -740,9 +764,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AssetPortfolio" displayName="AssetPortfolio" ref="A1:J4" totalsRowShown="0">
-  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AssetPortfolio" displayName="AssetPortfolio" ref="A1:L4" totalsRowShown="0">
+  <autoFilter ref="A1:L4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="AssetID"/>
     <tableColumn id="10" xr3:uid="{2D61095A-B8F7-478F-920D-85EBCF93C567}" name="Address"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="City"/>
@@ -750,6 +774,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ZIP"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Country"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SQFT"/>
+    <tableColumn id="12" xr3:uid="{31B55208-995E-4620-B284-0C564263B745}" name="Region"/>
+    <tableColumn id="11" xr3:uid="{66C90426-46B6-4F4C-A692-B24C3A372132}" name="BusinessUnit"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="AssetType"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AssetSubType"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="YearBuilt"/>
@@ -1055,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,12 +1096,14 @@
     <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,16 +1126,22 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1127,16 +1161,22 @@
         <v>2000</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1156,16 +1196,22 @@
         <v>650</v>
       </c>
       <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1185,12 +1231,18 @@
         <v>1600</v>
       </c>
       <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
         <v>2022</v>
       </c>
     </row>
@@ -1208,7 +1260,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
